--- a/reports/vivado/LoopPipeliningSolution/power/LoopPipeliningDSPPowerReport.xlsx
+++ b/reports/vivado/LoopPipeliningSolution/power/LoopPipeliningDSPPowerReport.xlsx
@@ -47,7 +47,7 @@
     <t>tmp_6_reg_463_reg__0 (DSP48E1)</t>
   </si>
   <si>
-    <t>ap_clk_IBUF</t>
+    <t>ap_clk_IBUF_BUFG</t>
   </si>
   <si>
     <t>Yes</t>
@@ -172,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.001189070870168507</v>
+        <v>8.147381013259292E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>7.854882278479636E-4</v>
+        <v>4.3397999252192676E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -219,12 +219,12 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>31.148040771484375</v>
+        <v>15.65217399597168</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>4.0358264232054353E-4</v>
+        <v>3.8075813790783286E-4</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>14</v>
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>15.959506034851074</v>
+        <v>14.903010368347168</v>
       </c>
     </row>
   </sheetData>
